--- a/opm_hero_property/heroes/100.xlsx
+++ b/opm_hero_property/heroes/100.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11143</v>
       </c>
       <c r="D4" t="n">
-        <v>11143</v>
+        <v>11397</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
@@ -1304,7 +1305,7 @@
         <v>12438</v>
       </c>
       <c r="D5" t="n">
-        <v>12438</v>
+        <v>12981</v>
       </c>
       <c r="E5" t="n">
         <v>370</v>
@@ -1411,7 +1412,7 @@
         <v>13962</v>
       </c>
       <c r="D6" t="n">
-        <v>13962</v>
+        <v>14844</v>
       </c>
       <c r="E6" t="n">
         <v>507</v>
@@ -1518,7 +1519,7 @@
         <v>15715</v>
       </c>
       <c r="D7" t="n">
-        <v>15715</v>
+        <v>18733</v>
       </c>
       <c r="E7" t="n">
         <v>951</v>
@@ -1625,7 +1626,7 @@
         <v>17696</v>
       </c>
       <c r="D8" t="n">
-        <v>17696</v>
+        <v>24112</v>
       </c>
       <c r="E8" t="n">
         <v>1409</v>
@@ -1732,7 +1733,7 @@
         <v>19981</v>
       </c>
       <c r="D9" t="n">
-        <v>19981</v>
+        <v>31355</v>
       </c>
       <c r="E9" t="n">
         <v>1859</v>
@@ -1839,7 +1840,7 @@
         <v>21201</v>
       </c>
       <c r="D10" t="n">
-        <v>21201</v>
+        <v>37386</v>
       </c>
       <c r="E10" t="n">
         <v>2197</v>
@@ -1946,7 +1947,7 @@
         <v>22648</v>
       </c>
       <c r="D11" t="n">
-        <v>22648</v>
+        <v>44792</v>
       </c>
       <c r="E11" t="n">
         <v>2564</v>
@@ -2053,7 +2054,7 @@
         <v>25696</v>
       </c>
       <c r="D12" t="n">
-        <v>25696</v>
+        <v>57972</v>
       </c>
       <c r="E12" t="n">
         <v>3155</v>
@@ -2160,7 +2161,7 @@
         <v>26306</v>
       </c>
       <c r="D13" t="n">
-        <v>26306</v>
+        <v>59835</v>
       </c>
       <c r="E13" t="n">
         <v>3550</v>
@@ -2267,7 +2268,7 @@
         <v>26915</v>
       </c>
       <c r="D14" t="n">
-        <v>26915</v>
+        <v>61698</v>
       </c>
       <c r="E14" t="n">
         <v>3944</v>
@@ -2374,7 +2375,7 @@
         <v>27525</v>
       </c>
       <c r="D15" t="n">
-        <v>27525</v>
+        <v>63561</v>
       </c>
       <c r="E15" t="n">
         <v>4339</v>
@@ -2481,7 +2482,7 @@
         <v>28134</v>
       </c>
       <c r="D16" t="n">
-        <v>28134</v>
+        <v>65424</v>
       </c>
       <c r="E16" t="n">
         <v>4733</v>
@@ -2588,7 +2589,7 @@
         <v>28744</v>
       </c>
       <c r="D17" t="n">
-        <v>28744</v>
+        <v>67287</v>
       </c>
       <c r="E17" t="n">
         <v>5128</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>36025.3292288</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4299.6335992</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2565.6695464</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>49198.44992960001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6662.1576064</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3744.579424</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>86426.73613440001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12293.8081</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7673.342568</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>86426.73613440001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12293.8081</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7673.342568</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1670</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>73896.92019840001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11063.0441</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6725.796648</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>310135.9689728</v>
+      </c>
+      <c r="U7" t="n">
+        <v>44591.405824</v>
+      </c>
+      <c r="V7" t="n">
+        <v>32344.9118984</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2130</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>252996.6993408</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39398.635264</v>
+      </c>
+      <c r="V8" t="n">
+        <v>27337.0958024</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>267281.5167488</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40696.827904</v>
+      </c>
+      <c r="V9" t="n">
+        <v>28589.0498264</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1230</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>281566.3341568</v>
+      </c>
+      <c r="U10" t="n">
+        <v>41995.020544</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29841.0038504</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1530</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>295851.1515648</v>
+      </c>
+      <c r="U11" t="n">
+        <v>43293.213184</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31092.9578744</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1830</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>295851.1515648</v>
+      </c>
+      <c r="U12" t="n">
+        <v>43293.213184</v>
+      </c>
+      <c r="V12" t="n">
+        <v>31092.9578744</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1760</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>439033.5768256</v>
+      </c>
+      <c r="U13" t="n">
+        <v>64154.087844</v>
+      </c>
+      <c r="V13" t="n">
+        <v>52852.7577944</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1900</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>439033.5768256</v>
+      </c>
+      <c r="U14" t="n">
+        <v>64154.087844</v>
+      </c>
+      <c r="V14" t="n">
+        <v>52852.7577944</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1970</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1079793.2019232</v>
+      </c>
+      <c r="U15" t="n">
+        <v>149718.4041632</v>
+      </c>
+      <c r="V15" t="n">
+        <v>154379.0692</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2250</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5481490.5000832</v>
+      </c>
+      <c r="U16" t="n">
+        <v>823528.2675808</v>
+      </c>
+      <c r="V16" t="n">
+        <v>745659.5876314</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2810</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8971407.329625599</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1342881.6092832</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1215206.0280248</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>233327.7192976</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41218.8609972</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24652.1907728</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>100</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>323167.0418944</v>
+      </c>
+      <c r="U19" t="n">
+        <v>51556.0019968</v>
+      </c>
+      <c r="V19" t="n">
+        <v>35416.1077856</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1160</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>418960.3348352</v>
+      </c>
+      <c r="U20" t="n">
+        <v>63903.4049024</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50086.49480879999</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1530</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>488253.6150112</v>
+      </c>
+      <c r="U21" t="n">
+        <v>73422.30641200001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60624.7900108</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1970</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>563897.9100800001</v>
+      </c>
+      <c r="U22" t="n">
+        <v>86457.43135839999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>75356.46981759999</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2250</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>718781.2446464</v>
+      </c>
+      <c r="U23" t="n">
+        <v>113220.1910496</v>
+      </c>
+      <c r="V23" t="n">
+        <v>105246.3824442</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2810</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/100.xlsx
+++ b/opm_hero_property/heroes/100.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>36025.3292288</v>
+        <v>5616367.5000832</v>
       </c>
       <c r="U2" t="n">
-        <v>4299.6335992</v>
+        <v>847256.2675808</v>
       </c>
       <c r="V2" t="n">
-        <v>2565.6695464</v>
+        <v>767499.5876314</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>1600</v>
+        <v>2810</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11249406.721555</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2036588.35371627</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15891688.37527127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>49198.44992960001</v>
+        <v>718781.2446464</v>
       </c>
       <c r="U3" t="n">
-        <v>6662.1576064</v>
+        <v>113220.1910496</v>
       </c>
       <c r="V3" t="n">
-        <v>3744.579424</v>
+        <v>105246.3824442</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>1600</v>
+        <v>2810</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>2990</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1274557.512835</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>231964.89910779</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2121297.26194279</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>86426.73613440001</v>
+        <v>7779.1696</v>
       </c>
       <c r="U4" t="n">
-        <v>12293.8081</v>
+        <v>1557.4378</v>
       </c>
       <c r="V4" t="n">
-        <v>7673.342568</v>
+        <v>577.9884</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>1600</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19079.52372</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23578.42372</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>86426.73613440001</v>
+        <v>20806.6882</v>
       </c>
       <c r="U5" t="n">
-        <v>12293.8081</v>
+        <v>3885.0976</v>
       </c>
       <c r="V5" t="n">
-        <v>7673.342568</v>
+        <v>1746.144</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>1670</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1070</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48444.08964</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60350.88964</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>73896.92019840001</v>
+        <v>59583.6748</v>
       </c>
       <c r="U6" t="n">
-        <v>11063.0441</v>
+        <v>9692.275</v>
       </c>
       <c r="V6" t="n">
-        <v>6725.796648</v>
+        <v>5702.108</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115758.9933</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9157</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>163814.9933</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>310135.9689728</v>
+        <v>59583.6748</v>
       </c>
       <c r="U7" t="n">
-        <v>44591.405824</v>
+        <v>9692.275</v>
       </c>
       <c r="V7" t="n">
-        <v>32344.9118984</v>
+        <v>5702.108</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>2130</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115758.9933</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>164052.9933</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>252996.6993408</v>
+        <v>59896.9201984</v>
       </c>
       <c r="U8" t="n">
-        <v>39398.635264</v>
+        <v>9723.044099999999</v>
       </c>
       <c r="V8" t="n">
-        <v>27337.0958024</v>
+        <v>5725.796648</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115758.9933</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>661.7619144</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164714.7552144</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,27 +8116,27 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>267281.5167488</v>
+        <v>250779.2176</v>
       </c>
       <c r="U9" t="n">
-        <v>40696.827904</v>
+        <v>39425.816</v>
       </c>
       <c r="V9" t="n">
-        <v>28589.0498264</v>
+        <v>27338.9004</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
       </c>
       <c r="X9" t="n">
-        <v>1230</v>
+        <v>930</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>523302.3753</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>691329.0253</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,27 +8251,27 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>281566.3341568</v>
+        <v>252207.6993408</v>
       </c>
       <c r="U10" t="n">
-        <v>41995.020544</v>
+        <v>39555.635264</v>
       </c>
       <c r="V10" t="n">
-        <v>29841.0038504</v>
+        <v>27464.0958024</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
       </c>
       <c r="X10" t="n">
-        <v>1530</v>
+        <v>930</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>523302.3753</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3044.1082262</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>694373.1335262</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,27 +8386,27 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>295851.1515648</v>
+        <v>266492.5167488</v>
       </c>
       <c r="U11" t="n">
-        <v>43293.213184</v>
+        <v>40853.827904</v>
       </c>
       <c r="V11" t="n">
-        <v>31092.9578744</v>
+        <v>28716.0498264</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
       </c>
       <c r="X11" t="n">
-        <v>1830</v>
+        <v>1230</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>523302.3753</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>33980.1904882</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>725309.2157882</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,27 +8521,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>295851.1515648</v>
+        <v>280777.3341568</v>
       </c>
       <c r="U12" t="n">
-        <v>43293.213184</v>
+        <v>42152.020544</v>
       </c>
       <c r="V12" t="n">
-        <v>31092.9578744</v>
+        <v>29968.0038504</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
       </c>
       <c r="X12" t="n">
-        <v>1760</v>
+        <v>1530</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -8273,7 +8553,7 @@
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>1940</v>
+        <v>2010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>523302.3753</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>64916.2727502</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>756245.2980502001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,23 +8660,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>439033.5768256</v>
+        <v>295062.1515648</v>
       </c>
       <c r="U13" t="n">
-        <v>64154.087844</v>
+        <v>43450.213184</v>
       </c>
       <c r="V13" t="n">
-        <v>52852.7577944</v>
+        <v>31219.9578744</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
       </c>
       <c r="X13" t="n">
-        <v>1900</v>
+        <v>1830</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8384,31 +8688,55 @@
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>523302.3753</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>95852.3550122</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>787181.3803122001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,23 +8795,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>439033.5768256</v>
+        <v>295062.1515648</v>
       </c>
       <c r="U14" t="n">
-        <v>64154.087844</v>
+        <v>43450.213184</v>
       </c>
       <c r="V14" t="n">
-        <v>52852.7577944</v>
+        <v>31219.9578744</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
       </c>
       <c r="X14" t="n">
-        <v>1970</v>
+        <v>1760</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8495,31 +8823,55 @@
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>2150</v>
+        <v>1940</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>523302.3753</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>95852.3550122</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38508</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>786943.3803122001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,23 +8930,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1079793.2019232</v>
+        <v>441533.5768256</v>
       </c>
       <c r="U15" t="n">
-        <v>149718.4041632</v>
+        <v>64962.087844</v>
       </c>
       <c r="V15" t="n">
-        <v>154379.0692</v>
+        <v>53626.7577944</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
       </c>
       <c r="X15" t="n">
-        <v>2250</v>
+        <v>1900</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8606,31 +8958,55 @@
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>2430</v>
+        <v>2080</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>805378.1684000001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>146941.871867</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111462</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1211161.840267</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,23 +9065,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5481490.5000832</v>
+        <v>441533.5768256</v>
       </c>
       <c r="U16" t="n">
-        <v>823528.2675808</v>
+        <v>64962.087844</v>
       </c>
       <c r="V16" t="n">
-        <v>745659.5876314</v>
+        <v>53626.7577944</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
       </c>
       <c r="X16" t="n">
-        <v>2810</v>
+        <v>1970</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8717,31 +9093,55 @@
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>805378.1684000001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>146941.871867</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111700</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1211399.840267</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,23 +9200,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8971407.329625599</v>
+        <v>1117288.2019232</v>
       </c>
       <c r="U17" t="n">
-        <v>1342881.6092832</v>
+        <v>156575.4041632</v>
       </c>
       <c r="V17" t="n">
-        <v>1215206.0280248</v>
+        <v>161012.0692</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
       </c>
       <c r="X17" t="n">
-        <v>3720</v>
+        <v>2250</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8828,64 +9228,88 @@
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>3900</v>
+        <v>2430</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1844403.55982</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>335153.97872928</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>688289.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3137703.88854928</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>233327.7192976</v>
+        <v>5616367.5000832</v>
       </c>
       <c r="U18" t="n">
-        <v>41218.8609972</v>
+        <v>847256.2675808</v>
       </c>
       <c r="V18" t="n">
-        <v>24652.1907728</v>
+        <v>767499.5876314</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>2810</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11249406.721555</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2036588.35371627</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15891688.37527127</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,37 +9456,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>323167.0418944</v>
+        <v>9281125.329625599</v>
       </c>
       <c r="U19" t="n">
-        <v>51556.0019968</v>
+        <v>1396914.6092832</v>
       </c>
       <c r="V19" t="n">
-        <v>35416.1077856</v>
+        <v>1264438.0280248</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
       </c>
       <c r="X19" t="n">
-        <v>1160</v>
+        <v>3720</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -9050,31 +9498,55 @@
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>1940</v>
+        <v>3900</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18255441.02722</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3304264.76760228</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3474140.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26209578.79482228</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>418960.3348352</v>
+        <v>219327.7192976</v>
       </c>
       <c r="U20" t="n">
-        <v>63903.4049024</v>
+        <v>39878.8609972</v>
       </c>
       <c r="V20" t="n">
-        <v>50086.49480879999</v>
+        <v>23652.1907728</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>1530</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>552668.26797</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3179.38915188</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32014.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>635297.45712188</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>488253.6150112</v>
+        <v>293767.0418944</v>
       </c>
       <c r="U21" t="n">
-        <v>73422.30641200001</v>
+        <v>48742.0019968</v>
       </c>
       <c r="V21" t="n">
-        <v>60624.7900108</v>
+        <v>33316.1077856</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>1970</v>
+        <v>890</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>2150</v>
+        <v>1265</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>654725.3906800001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>42174.18475952</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>64028.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>829064.2254395201</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,37 +9861,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>563897.9100800001</v>
+        <v>418960.3348352</v>
       </c>
       <c r="U22" t="n">
-        <v>86457.43135839999</v>
+        <v>63903.4049024</v>
       </c>
       <c r="V22" t="n">
-        <v>75356.46981759999</v>
+        <v>50086.49480879999</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
       </c>
       <c r="X22" t="n">
-        <v>2250</v>
+        <v>1530</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9383,31 +9903,55 @@
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>2430</v>
+        <v>2010</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>828424.43934</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>102332.23447236</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>91895.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1160194.17381236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,23 +10010,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>718781.2446464</v>
+        <v>488253.6150112</v>
       </c>
       <c r="U23" t="n">
-        <v>113220.1910496</v>
+        <v>73422.30641200001</v>
       </c>
       <c r="V23" t="n">
-        <v>105246.3824442</v>
+        <v>60624.7900108</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
       </c>
       <c r="X23" t="n">
-        <v>2810</v>
+        <v>1970</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9494,31 +10038,325 @@
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>904627.69145</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>164913.1303661</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>142670</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1356734.0718161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>563897.9100800001</v>
+      </c>
+      <c r="U24" t="n">
+        <v>86457.43135839999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>75356.46981759999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2250</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1024860.53124</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>186719.10666416</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>239067.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1607979.88790416</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>718781.2446464</v>
+      </c>
+      <c r="U25" t="n">
+        <v>113220.1910496</v>
+      </c>
+      <c r="V25" t="n">
+        <v>105246.3824442</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2810</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1274557.512835</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>231964.89910779</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2121297.26194279</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/100.xlsx
+++ b/opm_hero_property/heroes/100.xlsx
@@ -7226,8 +7226,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11249406.721555</v>
       </c>
@@ -7361,8 +7369,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1274557.512835</v>
       </c>
@@ -7901,8 +7917,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>115758.9933</v>
       </c>
@@ -8036,8 +8060,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>115758.9933</v>
       </c>
@@ -8306,8 +8338,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>523302.3753</v>
       </c>
@@ -8441,8 +8481,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>523302.3753</v>
       </c>
@@ -8576,8 +8624,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>523302.3753</v>
       </c>
@@ -8711,8 +8767,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>523302.3753</v>
       </c>
@@ -8846,8 +8910,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>523302.3753</v>
       </c>
@@ -8981,8 +9053,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>805378.1684000001</v>
       </c>
@@ -9116,8 +9196,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>805378.1684000001</v>
       </c>
@@ -9251,8 +9339,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1844403.55982</v>
       </c>
@@ -9386,8 +9482,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11249406.721555</v>
       </c>
@@ -9521,8 +9625,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18255441.02722</v>
       </c>
@@ -9656,8 +9768,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>552668.26797</v>
       </c>
@@ -9791,8 +9911,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>654725.3906800001</v>
       </c>
@@ -9926,8 +10054,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>828424.43934</v>
       </c>
@@ -10061,8 +10197,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>904627.69145</v>
       </c>
@@ -10196,8 +10340,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1024860.53124</v>
       </c>
@@ -10331,8 +10483,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1274557.512835</v>
       </c>

--- a/opm_hero_property/heroes/100.xlsx
+++ b/opm_hero_property/heroes/100.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,77925;31,9842;41,4299</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,116888;31,0;41,6449</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9441;31,1188;41,590</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,14162;31,0;41,885</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>77925.834</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9842.742</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>4299.9916</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>116888.751</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>6449.9874</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>9441.495000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1188.558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>590.2508</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>14162.2425</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>885.3761999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,77933;31,9844;41,4300</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,116900;31,0;41,6450</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9449;31,1190;41,590</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,14173;31,0;41,886</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>77933.583</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>9844.296</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>4300.5944</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>116900.3745</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>6450.8916</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>9449.244000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1190.112</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>590.8536</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>14173.866</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>886.2804</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,83298;31,10952;41,4883</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,124947;31,0;41,7324</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10027;31,1309;41,655</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,15040;31,0;41,982</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>83298.59293139999</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>10952.7927558</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4883.28126012</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>124947.8893971</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7324.92189018</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>10027.1986353</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1309.4355246</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>655.2896703600001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>15040.79795295</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>982.93450554</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,89383;31,12208;41,5543</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,134075;31,0;41,8315</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10681;31,1444;41,728</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,16022;31,0;41,1092</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>89383.96419119999</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>12208.5420828</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5543.822748760001</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>134075.9462868</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>8315.734123140001</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>10681.7618124</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1444.4680236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>728.2082162800001</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>16022.6427186</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>1092.31232442</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53630;31,11405;41,4036</t>
+          <t>21,96535;31,13686;41,6320</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53630;31,11405;41,4036</t>
+          <t>21,144803;31,0;41,9481</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26815;31,5702;41,2018</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6361;31,1336;41,519</t>
+          <t>21,11450;31,1603;41,813</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6361;31,1336;41,519</t>
+          <t>21,17175;31,0;41,1220</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3180;31,668;41,259</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53630</v>
+        <v>96535.52576640001</v>
       </c>
       <c r="O6" t="n">
-        <v>11405</v>
+        <v>13686.2017572</v>
       </c>
       <c r="P6" t="n">
-        <v>4036</v>
+        <v>6320.71303824</v>
       </c>
       <c r="Q6" t="n">
-        <v>53630</v>
+        <v>144803.2886496</v>
       </c>
       <c r="R6" t="n">
-        <v>11405</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4036</v>
+        <v>9481.069557359999</v>
       </c>
       <c r="T6" t="n">
-        <v>26815</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5702</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6361</v>
+        <v>11450.5829928</v>
       </c>
       <c r="X6" t="n">
-        <v>1336</v>
+        <v>1603.2300564</v>
       </c>
       <c r="Y6" t="n">
-        <v>519</v>
+        <v>813.9737947200001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6361</v>
+        <v>17175.8744892</v>
       </c>
       <c r="AA6" t="n">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>519</v>
+        <v>1220.96069208</v>
       </c>
       <c r="AC6" t="n">
-        <v>3180</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60075;31,12823;41,5073</t>
+          <t>21,108136;31,15388;41,7943</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60075;31,12823;41,5073</t>
+          <t>21,162204;31,0;41,11915</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30037;31,6411;41,2536</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7061;31,1490;41,635</t>
+          <t>21,12710;31,1788;41,994</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7061;31,1490;41,635</t>
+          <t>21,19065;31,0;41,1491</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3530;31,745;41,317</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60075</v>
+        <v>108136.2715524</v>
       </c>
       <c r="O7" t="n">
-        <v>12823</v>
+        <v>15388.165779</v>
       </c>
       <c r="P7" t="n">
-        <v>5073</v>
+        <v>7943.71917468</v>
       </c>
       <c r="Q7" t="n">
-        <v>60075</v>
+        <v>162204.4073286</v>
       </c>
       <c r="R7" t="n">
-        <v>12823</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5073</v>
+        <v>11915.57876202</v>
       </c>
       <c r="T7" t="n">
-        <v>30037</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6411</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2536</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7061</v>
+        <v>12710.1935898</v>
       </c>
       <c r="X7" t="n">
-        <v>1490</v>
+        <v>1788.115623</v>
       </c>
       <c r="Y7" t="n">
-        <v>635</v>
+        <v>994.26173404</v>
       </c>
       <c r="Z7" t="n">
-        <v>7061</v>
+        <v>19065.2903847</v>
       </c>
       <c r="AA7" t="n">
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>635</v>
+        <v>1491.39260106</v>
       </c>
       <c r="AC7" t="n">
-        <v>3530</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68403;31,14425;41,6506</t>
+          <t>21,123125;31,17310;41,10187</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68403;31,14425;41,6506</t>
+          <t>21,184688;31,0;41,15281</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34201;31,7212;41,3253</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7961;31,1663;41,793</t>
+          <t>21,14331;31,1995;41,1243</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7961;31,1663;41,793</t>
+          <t>21,21496;31,0;41,1864</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3980;31,831;41,396</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68403</v>
+        <v>123125.4264996</v>
       </c>
       <c r="O8" t="n">
-        <v>14425</v>
+        <v>17310.2316576</v>
       </c>
       <c r="P8" t="n">
-        <v>6506</v>
+        <v>10187.93937152</v>
       </c>
       <c r="Q8" t="n">
-        <v>68403</v>
+        <v>184688.1397494</v>
       </c>
       <c r="R8" t="n">
-        <v>14425</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6506</v>
+        <v>15281.90905728</v>
       </c>
       <c r="T8" t="n">
-        <v>34201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7212</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3253</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7961</v>
+        <v>14331.2055642</v>
       </c>
       <c r="X8" t="n">
-        <v>1663</v>
+        <v>1995.7876512</v>
       </c>
       <c r="Y8" t="n">
-        <v>793</v>
+        <v>1243.01235456</v>
       </c>
       <c r="Z8" t="n">
-        <v>7961</v>
+        <v>21496.8083463</v>
       </c>
       <c r="AA8" t="n">
-        <v>1663</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>793</v>
+        <v>1864.51853184</v>
       </c>
       <c r="AC8" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,79114;31,16271;41,8436</t>
+          <t>21,142405;31,19526;41,13208</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,79114;31,16271;41,8436</t>
+          <t>21,213608;31,0;41,19813</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39557;31,8135;41,4218</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9115;31,1861;41,1007</t>
+          <t>21,16408;31,2234;41,1577</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9115;31,1861;41,1007</t>
+          <t>21,24612;31,0;41,2365</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4557;31,930;41,503</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>79114</v>
+        <v>142405.9670628</v>
       </c>
       <c r="O9" t="n">
-        <v>16271</v>
+        <v>19526.0466786</v>
       </c>
       <c r="P9" t="n">
-        <v>8436</v>
+        <v>13208.9732858</v>
       </c>
       <c r="Q9" t="n">
-        <v>79114</v>
+        <v>213608.9505942</v>
       </c>
       <c r="R9" t="n">
-        <v>16271</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8436</v>
+        <v>19813.4599287</v>
       </c>
       <c r="T9" t="n">
-        <v>39557</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8135</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4218</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9115</v>
+        <v>16408.4801706</v>
       </c>
       <c r="X9" t="n">
-        <v>1861</v>
+        <v>2234.1216282</v>
       </c>
       <c r="Y9" t="n">
-        <v>1007</v>
+        <v>1577.0810074</v>
       </c>
       <c r="Z9" t="n">
-        <v>9115</v>
+        <v>24612.7202559</v>
       </c>
       <c r="AA9" t="n">
-        <v>1861</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1007</v>
+        <v>2365.6215111</v>
       </c>
       <c r="AC9" t="n">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,87143;31,17257;41,10043</t>
+          <t>21,156858;31,20709;41,15724</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,87143;31,17257;41,10043</t>
+          <t>21,235288;31,0;41,23586</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43571;31,8628;41,5021</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9980;31,1967;41,1184</t>
+          <t>21,17965;31,2361;41,1855</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9980;31,1967;41,1184</t>
+          <t>21,26948;31,0;41,2782</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4990;31,983;41,592</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>87143</v>
+        <v>156858.7398966</v>
       </c>
       <c r="O10" t="n">
-        <v>17257</v>
+        <v>20709.0332106</v>
       </c>
       <c r="P10" t="n">
-        <v>10043</v>
+        <v>15724.50611256</v>
       </c>
       <c r="Q10" t="n">
-        <v>87143</v>
+        <v>235288.1098449</v>
       </c>
       <c r="R10" t="n">
-        <v>17257</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10043</v>
+        <v>23586.75916884</v>
       </c>
       <c r="T10" t="n">
-        <v>43571</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8628</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5021</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9980</v>
+        <v>17965.6519707</v>
       </c>
       <c r="X10" t="n">
-        <v>1967</v>
+        <v>2361.2977122</v>
       </c>
       <c r="Y10" t="n">
-        <v>1184</v>
+        <v>1855.26915768</v>
       </c>
       <c r="Z10" t="n">
-        <v>9980</v>
+        <v>26948.47795605</v>
       </c>
       <c r="AA10" t="n">
-        <v>1967</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1184</v>
+        <v>2782.90373652</v>
       </c>
       <c r="AC10" t="n">
-        <v>4990</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,96932;31,18426;41,12015</t>
+          <t>21,174478;31,22111;41,18813</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,96932;31,18426;41,12015</t>
+          <t>21,261717;31,0;41,28219</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48466;31,9213;41,6007</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11034;31,2093;41,1402</t>
+          <t>21,19861;31,2511;41,2196</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11034;31,2093;41,1402</t>
+          <t>21,29792;31,0;41,3294</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5517;31,1046;41,701</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>96932</v>
+        <v>174478.6083222</v>
       </c>
       <c r="O11" t="n">
-        <v>18426</v>
+        <v>22111.8251088</v>
       </c>
       <c r="P11" t="n">
-        <v>12015</v>
+        <v>18813.17638432</v>
       </c>
       <c r="Q11" t="n">
-        <v>96932</v>
+        <v>261717.9124833</v>
       </c>
       <c r="R11" t="n">
-        <v>18426</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12015</v>
+        <v>28219.76457648</v>
       </c>
       <c r="T11" t="n">
-        <v>48466</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9213</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6007</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11034</v>
+        <v>19861.5161619</v>
       </c>
       <c r="X11" t="n">
-        <v>2093</v>
+        <v>2511.8291856</v>
       </c>
       <c r="Y11" t="n">
-        <v>1402</v>
+        <v>2196.50539296</v>
       </c>
       <c r="Z11" t="n">
-        <v>11034</v>
+        <v>29792.27424285</v>
       </c>
       <c r="AA11" t="n">
-        <v>2093</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1402</v>
+        <v>3294.75808944</v>
       </c>
       <c r="AC11" t="n">
-        <v>5517</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,114968;31,20888;41,15525</t>
+          <t>21,206942;31,25066;41,24309</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,114968;31,20888;41,15525</t>
+          <t>21,310413;31,0;41,36463</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,57484;31,10444;41,7762</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12972;31,2357;41,1790</t>
+          <t>21,23349;31,2828;41,2803</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12972;31,2357;41,1790</t>
+          <t>21,35024;31,0;41,4204</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6486;31,1178;41,895</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>114968</v>
+        <v>206942.6001888</v>
       </c>
       <c r="O12" t="n">
-        <v>20888</v>
+        <v>25066.5984576</v>
       </c>
       <c r="P12" t="n">
-        <v>15525</v>
+        <v>24309.15529712</v>
       </c>
       <c r="Q12" t="n">
-        <v>114968</v>
+        <v>310413.9002832</v>
       </c>
       <c r="R12" t="n">
-        <v>20888</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>15525</v>
+        <v>36463.73294568</v>
       </c>
       <c r="T12" t="n">
-        <v>57484</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10444</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>7762</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12972</v>
+        <v>23349.7841976</v>
       </c>
       <c r="X12" t="n">
-        <v>2357</v>
+        <v>2828.8072512</v>
       </c>
       <c r="Y12" t="n">
-        <v>1790</v>
+        <v>2803.04593136</v>
       </c>
       <c r="Z12" t="n">
-        <v>12972</v>
+        <v>35024.6762964</v>
       </c>
       <c r="AA12" t="n">
-        <v>2357</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1790</v>
+        <v>4204.56889704</v>
       </c>
       <c r="AC12" t="n">
-        <v>6486</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,117762;31,21383;41,16023</t>
+          <t>21,211972;31,25660;41,25088</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,117762;31,21383;41,16023</t>
+          <t>21,317958;31,0;41,37632</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,58881;31,10691;41,8011</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13281;31,2412;41,1846</t>
+          <t>21,23907;31,2894;41,2890</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13281;31,2412;41,1846</t>
+          <t>21,35860;31,0;41,4336</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6640;31,1206;41,923</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>117762</v>
+        <v>211972.1350446</v>
       </c>
       <c r="O13" t="n">
-        <v>21383</v>
+        <v>25660.1497236</v>
       </c>
       <c r="P13" t="n">
-        <v>16023</v>
+        <v>25088.1827866</v>
       </c>
       <c r="Q13" t="n">
-        <v>117762</v>
+        <v>317958.2025669</v>
       </c>
       <c r="R13" t="n">
-        <v>21383</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16023</v>
+        <v>37632.2741799</v>
       </c>
       <c r="T13" t="n">
-        <v>58881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10691</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8011</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13281</v>
+        <v>23907.2917167</v>
       </c>
       <c r="X13" t="n">
-        <v>2412</v>
+        <v>2894.4532932</v>
       </c>
       <c r="Y13" t="n">
-        <v>1846</v>
+        <v>2890.9487098</v>
       </c>
       <c r="Z13" t="n">
-        <v>13281</v>
+        <v>35860.93757505</v>
       </c>
       <c r="AA13" t="n">
-        <v>2412</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1846</v>
+        <v>4336.4230647</v>
       </c>
       <c r="AC13" t="n">
-        <v>6640</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1206</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,120552;31,21877;41,16520</t>
+          <t>21,216993;31,26252;41,25867</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,120552;31,21877;41,16520</t>
+          <t>21,325490;31,0;41,38800</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,60276;31,10938;41,8260</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13591;31,2466;41,1902</t>
+          <t>21,24463;31,2960;41,2978</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13591;31,2466;41,1902</t>
+          <t>21,36695;31,0;41,4468</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6795;31,1233;41,951</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>120552</v>
+        <v>216993.9428118</v>
       </c>
       <c r="O14" t="n">
-        <v>21877</v>
+        <v>26252.774499</v>
       </c>
       <c r="P14" t="n">
-        <v>16520</v>
+        <v>25867.15547608</v>
       </c>
       <c r="Q14" t="n">
-        <v>120552</v>
+        <v>325490.9142177</v>
       </c>
       <c r="R14" t="n">
-        <v>21877</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>16520</v>
+        <v>38800.73321411999</v>
       </c>
       <c r="T14" t="n">
-        <v>60276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10938</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8260</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13591</v>
+        <v>24463.9205811</v>
       </c>
       <c r="X14" t="n">
-        <v>2466</v>
+        <v>2960.038263</v>
       </c>
       <c r="Y14" t="n">
-        <v>1902</v>
+        <v>2978.79668824</v>
       </c>
       <c r="Z14" t="n">
-        <v>13591</v>
+        <v>36695.88087165</v>
       </c>
       <c r="AA14" t="n">
-        <v>2466</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1902</v>
+        <v>4468.195032359999</v>
       </c>
       <c r="AC14" t="n">
-        <v>6795</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1233</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,123346;31,22371;41,17018</t>
+          <t>21,222023;31,26846;41,26646</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,123346;31,22371;41,17018</t>
+          <t>21,333035;31,0;41,39969</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,61673;31,11185;41,8509</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13900;31,2521;41,1958</t>
+          <t>21,25021;31,3025;41,3066</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13900;31,2521;41,1958</t>
+          <t>21,37532;31,0;41,4600</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6950;31,1260;41,979</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>123346</v>
+        <v>222023.4776676</v>
       </c>
       <c r="O15" t="n">
-        <v>22371</v>
+        <v>26846.367765</v>
       </c>
       <c r="P15" t="n">
-        <v>17018</v>
+        <v>26646.18296556</v>
       </c>
       <c r="Q15" t="n">
-        <v>123346</v>
+        <v>333035.2165014</v>
       </c>
       <c r="R15" t="n">
-        <v>22371</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>17018</v>
+        <v>39969.27444834</v>
       </c>
       <c r="T15" t="n">
-        <v>61673</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11185</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>8509</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13900</v>
+        <v>25021.4281002</v>
       </c>
       <c r="X15" t="n">
-        <v>2521</v>
+        <v>3025.726305</v>
       </c>
       <c r="Y15" t="n">
-        <v>1958</v>
+        <v>3066.69946668</v>
       </c>
       <c r="Z15" t="n">
-        <v>13900</v>
+        <v>37532.1421503</v>
       </c>
       <c r="AA15" t="n">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1958</v>
+        <v>4600.049200019999</v>
       </c>
       <c r="AC15" t="n">
-        <v>6950</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,126140;31,22865;41,17516</t>
+          <t>21,227052;31,27438;41,27425</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,126140;31,22865;41,17516</t>
+          <t>21,340579;31,0;41,41137</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,63070;31,11432;41,8758</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14210;31,2576;41,2014</t>
+          <t>21,25578;31,3091;41,3154</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14210;31,2576;41,2014</t>
+          <t>21,38368;31,0;41,4731</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7105;31,1288;41,1007</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>126140</v>
+        <v>227052.9495234</v>
       </c>
       <c r="O16" t="n">
-        <v>22865</v>
+        <v>27438.9505404</v>
       </c>
       <c r="P16" t="n">
-        <v>17516</v>
+        <v>27425.21045504</v>
       </c>
       <c r="Q16" t="n">
-        <v>126140</v>
+        <v>340579.4242851</v>
       </c>
       <c r="R16" t="n">
-        <v>22865</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>17516</v>
+        <v>41137.81568255999</v>
       </c>
       <c r="T16" t="n">
-        <v>63070</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11432</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>8758</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14210</v>
+        <v>25578.8726193</v>
       </c>
       <c r="X16" t="n">
-        <v>2576</v>
+        <v>3091.2692748</v>
       </c>
       <c r="Y16" t="n">
-        <v>2014</v>
+        <v>3154.60224512</v>
       </c>
       <c r="Z16" t="n">
-        <v>14210</v>
+        <v>38368.30892895001</v>
       </c>
       <c r="AA16" t="n">
-        <v>2576</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2014</v>
+        <v>4731.90336768</v>
       </c>
       <c r="AC16" t="n">
-        <v>7105</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,128934;31,23360;41,18013</t>
+          <t>21,232082;31,28032;41,28204</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,128934;31,23360;41,18013</t>
+          <t>21,348123;31,0;41,42306</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,64467;31,11680;41,9006</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14520;31,2630;41,2070</t>
+          <t>21,26136;31,3156;41,3242</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14520;31,2630;41,2070</t>
+          <t>21,39204;31,0;41,4863</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7260;31,1315;41,1035</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>128934</v>
+        <v>232082.4843792</v>
       </c>
       <c r="O17" t="n">
-        <v>23360</v>
+        <v>28032.5438064</v>
       </c>
       <c r="P17" t="n">
-        <v>18013</v>
+        <v>28204.23794452</v>
       </c>
       <c r="Q17" t="n">
-        <v>128934</v>
+        <v>348123.7265688</v>
       </c>
       <c r="R17" t="n">
-        <v>23360</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18013</v>
+        <v>42306.35691677999</v>
       </c>
       <c r="T17" t="n">
-        <v>64467</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11680</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9006</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14520</v>
+        <v>26136.3801384</v>
       </c>
       <c r="X17" t="n">
-        <v>2630</v>
+        <v>3156.9573168</v>
       </c>
       <c r="Y17" t="n">
-        <v>2070</v>
+        <v>3242.50502356</v>
       </c>
       <c r="Z17" t="n">
-        <v>14520</v>
+        <v>39204.5702076</v>
       </c>
       <c r="AA17" t="n">
-        <v>2630</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2070</v>
+        <v>4863.75753534</v>
       </c>
       <c r="AC17" t="n">
-        <v>7260</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1315</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1035</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,40 +5447,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12996</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1569</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12543</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -5501,40 +5501,40 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6646</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>6414</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -5556,27 +5556,27 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>21,12996;31,1569;41,1580;22,72;32,48;42,62</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>21,12543;31,0;41,1525;22,108;32,0;42,93</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6646;31,871;41,636;22,63;32,42;42,54</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6414;31,0;41,614;22,94;32,0;42,82</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -5590,40 +5590,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>25993</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3139</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3160</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25086</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -5644,40 +5644,40 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7662</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>7395</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -5699,27 +5699,27 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>21,25993;31,3139;41,3160;22,144;32,96;42,125</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>21,25086;31,0;41,3050;22,216;32,0;42,187</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7662;31,967;41,788;22,126;32,84;42,109</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7395;31,0;41,761;22,189;32,0;42,164</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -5733,40 +5733,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38989</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4709</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4740</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>37629</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4575</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5787,40 +5787,40 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9389</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>9061</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -5842,27 +5842,27 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>21,38989;31,4709;41,4740;22,216;32,144;42,187</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>21,37629;31,0;41,4575;22,324;32,0;42,281</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,9389;31,1137;41,1054;22,189;32,126;42,164</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,9061;31,0;41,1017;22,283;32,0;42,246</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -5876,40 +5876,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>51986</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6279</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6321</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50172</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -5930,40 +5930,40 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>10067</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>9716</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -5985,27 +5985,27 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
+          <t>21,51986;31,6279;41,6321;22,288;32,192;42,250</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>21,50172;31,0;41,6100;22,432;32,0;42,375</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,10067;31,1219;41,1147;22,252;32,168;42,219</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,9716;31,0;41,1107;22,378;32,0;42,328</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -6019,40 +6019,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>64983</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7848</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>7901</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>62715</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7625</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -6073,40 +6073,40 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>10790</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>10413</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -6128,27 +6128,27 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
+          <t>21,64983;31,7848;41,7901;22,360;32,240;42,313</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>21,62715;31,0;41,7625;22,540;32,0;42,469</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,10790;31,1305;41,1248;22,315;32,210;42,274</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,10413;31,0;41,1204;22,472;32,0;42,411</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -6162,40 +6162,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>77979</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9418</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9481</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>75258</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9150</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -6216,40 +6216,40 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>11559</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1397</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>11156</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -6271,27 +6271,27 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
+          <t>21,77979;31,9418;41,9481;22,432;32,288;42,375</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>21,75258;31,0;41,9150;22,648;32,0;42,563</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,11559;31,1397;41,1355;22,378;32,252;42,328</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,11156;31,0;41,1308;22,567;32,0;42,493</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -6305,40 +6305,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>90976</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10988</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11061</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>87801</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10675</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -6359,40 +6359,40 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12378</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>11946</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -6414,27 +6414,27 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
+          <t>21,90976;31,10988;41,11061;22,504;32,336;42,438</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>21,87801;31,0;41,10675;22,756;32,0;42,657</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,12378;31,1496;41,1471;22,441;32,294;42,383</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,11946;31,0;41,1420;22,661;32,0;42,575</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -6448,40 +6448,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>103972</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>12558</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12642</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100344</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -6502,40 +6502,40 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>13753</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1661</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>13273</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -6557,27 +6557,27 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>21,103972;31,12558;41,12642;22,567;32,378;42,493</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>21,100344;31,0;41,12200;22,850;32,0;42,740</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,13753;31,1661;41,1666;22,504;32,336;42,438</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,13273;31,0;41,1608;22,756;32,0;42,657</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -6591,40 +6591,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>116969</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14127</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14222</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>112887</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>13725</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -6645,40 +6645,40 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>14892</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1798</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1827</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>14372</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1763</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -6700,27 +6700,27 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
+          <t>21,116969;31,14127;41,14222;22,603;32,402;42,524</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>21,112887;31,0;41,13725;22,904;32,0;42,787</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,14892;31,1798;41,1827;22,567;32,378;42,493</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,14372;31,0;41,1763;22,850;32,0;42,740</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -6734,40 +6734,40 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>129966</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>15697</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>15802</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>125431</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>15251</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -6788,40 +6788,40 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16055</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1939</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1992</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>15494</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1923</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -6843,27 +6843,27 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
+          <t>21,129966;31,15697;41,15802;22,630;32,420;42,548</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>21,125431;31,0;41,15251;22,945;32,0;42,822</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,16055;31,1939;41,1992;22,630;32,420;42,548</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,15494;31,0;41,1923;22,945;32,0;42,822</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -7179,13 +7179,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5616367.5000832</v>
+        <v>5978415.9844624</v>
       </c>
       <c r="U2" t="n">
-        <v>847256.2675808</v>
+        <v>890985.8113872</v>
       </c>
       <c r="V2" t="n">
-        <v>767499.5876314</v>
+        <v>811505.8255759199</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,473554;31,0;41,57557</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -7255,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>916818.2048243501</v>
       </c>
       <c r="AS2" t="n">
-        <v>15891688.37527127</v>
+        <v>16808506.58009562</v>
       </c>
     </row>
     <row r="3">
@@ -7322,13 +7322,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>718781.2446464</v>
+        <v>760972.6247848</v>
       </c>
       <c r="U3" t="n">
-        <v>113220.1910496</v>
+        <v>118316.1483664</v>
       </c>
       <c r="V3" t="n">
-        <v>105246.3824442</v>
+        <v>110480.88746776</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,54698;31,0;41,6786</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>107451.88950979</v>
       </c>
       <c r="AS3" t="n">
-        <v>2121297.26194279</v>
+        <v>2228749.15145258</v>
       </c>
     </row>
     <row r="4">
@@ -7870,13 +7870,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>59583.6748</v>
+        <v>72861.59565856001</v>
       </c>
       <c r="U7" t="n">
-        <v>9692.275</v>
+        <v>11298.19792</v>
       </c>
       <c r="V7" t="n">
-        <v>5702.108</v>
+        <v>7306.5862696</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,12965;31,0;41,1561</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -7946,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>33584.53905676</v>
       </c>
       <c r="AS7" t="n">
-        <v>164052.9933</v>
+        <v>197637.53235676</v>
       </c>
     </row>
     <row r="8">
@@ -8013,13 +8013,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>59896.9201984</v>
+        <v>86453.76191552001</v>
       </c>
       <c r="U8" t="n">
-        <v>9723.044099999999</v>
+        <v>12935.88994</v>
       </c>
       <c r="V8" t="n">
-        <v>5725.796648</v>
+        <v>8935.147998</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,25931;31,0;41,3123</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -8089,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>67179.24827562</v>
       </c>
       <c r="AS8" t="n">
-        <v>164714.7552144</v>
+        <v>231894.00349002</v>
       </c>
     </row>
     <row r="9">
@@ -8291,13 +8291,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>252207.6993408</v>
+        <v>266489.33290752</v>
       </c>
       <c r="U10" t="n">
-        <v>39555.635264</v>
+        <v>41280.41838079999</v>
       </c>
       <c r="V10" t="n">
-        <v>27464.0958024</v>
+        <v>29173.46438488</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,14471;31,0;41,1719</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -8367,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>36011.5064219</v>
       </c>
       <c r="AS10" t="n">
-        <v>694373.1335262</v>
+        <v>730384.6399481</v>
       </c>
     </row>
     <row r="11">
@@ -8434,13 +8434,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>266492.5167488</v>
+        <v>337903.6845824</v>
       </c>
       <c r="U11" t="n">
-        <v>40853.827904</v>
+        <v>49480.743488</v>
       </c>
       <c r="V11" t="n">
-        <v>28716.0498264</v>
+        <v>37270.15250892</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,72357;31,0;41,8603</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -8510,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>180122.97578769</v>
       </c>
       <c r="AS11" t="n">
-        <v>725309.2157882</v>
+        <v>905432.1915758901</v>
       </c>
     </row>
     <row r="12">
@@ -8577,13 +8577,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>280777.3341568</v>
+        <v>352188.5019904</v>
       </c>
       <c r="U12" t="n">
-        <v>42152.020544</v>
+        <v>50778.936128</v>
       </c>
       <c r="V12" t="n">
-        <v>29968.0038504</v>
+        <v>38522.10653292</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,72357;31,0;41,8603</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -8653,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>180122.97578769</v>
       </c>
       <c r="AS12" t="n">
-        <v>756245.2980502001</v>
+        <v>936368.27383789</v>
       </c>
     </row>
     <row r="13">
@@ -8720,13 +8720,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>295062.1515648</v>
+        <v>436277.4452736</v>
       </c>
       <c r="U13" t="n">
-        <v>43450.213184</v>
+        <v>60510.315456</v>
       </c>
       <c r="V13" t="n">
-        <v>31219.9578744</v>
+        <v>48165.40921632</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,142304;31,0;41,16966</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -8796,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>356366.34460164</v>
       </c>
       <c r="AS13" t="n">
-        <v>787181.3803122001</v>
+        <v>1143547.72491384</v>
       </c>
     </row>
     <row r="14">
@@ -8863,13 +8863,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>295062.1515648</v>
+        <v>366473.3193984</v>
       </c>
       <c r="U14" t="n">
-        <v>43450.213184</v>
+        <v>52077.128768</v>
       </c>
       <c r="V14" t="n">
-        <v>31219.9578744</v>
+        <v>39774.06055692</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,72357;31,0;41,8603</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>180122.97578769</v>
       </c>
       <c r="AS14" t="n">
-        <v>786943.3803122001</v>
+        <v>967066.3560998901</v>
       </c>
     </row>
     <row r="15">
@@ -9006,13 +9006,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>441533.5768256</v>
+        <v>531080.74679264</v>
       </c>
       <c r="U15" t="n">
-        <v>64962.087844</v>
+        <v>75779.8623368</v>
       </c>
       <c r="V15" t="n">
-        <v>53626.7577944</v>
+        <v>64421.2935594</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,92610;31,0;41,11122</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>226258.39461611</v>
       </c>
       <c r="AS15" t="n">
-        <v>1211161.840267</v>
+        <v>1437420.23488311</v>
       </c>
     </row>
     <row r="16">
@@ -9149,13 +9149,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>441533.5768256</v>
+        <v>546005.77512048</v>
       </c>
       <c r="U16" t="n">
-        <v>64962.087844</v>
+        <v>77583.15808560001</v>
       </c>
       <c r="V16" t="n">
-        <v>53626.7577944</v>
+        <v>66221.96756792</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,108045;31,0;41,12976</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -9225,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>263980.03915966</v>
       </c>
       <c r="AS16" t="n">
-        <v>1211399.840267</v>
+        <v>1475379.87942666</v>
       </c>
     </row>
     <row r="17">
@@ -9292,13 +9292,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1117288.2019232</v>
+        <v>1254938.73898173</v>
       </c>
       <c r="U17" t="n">
-        <v>156575.4041632</v>
+        <v>173203.50921424</v>
       </c>
       <c r="V17" t="n">
-        <v>161012.0692</v>
+        <v>177998.00066</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,150832;31,0;41,18720</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -9368,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>350053.567805706</v>
       </c>
       <c r="AS17" t="n">
-        <v>3137703.88854928</v>
+        <v>3487757.456354986</v>
       </c>
     </row>
     <row r="18">
@@ -9435,13 +9435,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5616367.5000832</v>
+        <v>5978415.9844624</v>
       </c>
       <c r="U18" t="n">
-        <v>847256.2675808</v>
+        <v>890985.8113872</v>
       </c>
       <c r="V18" t="n">
-        <v>767499.5876314</v>
+        <v>811505.8255759199</v>
       </c>
       <c r="W18" t="n">
         <v>1940</v>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,473554;31,0;41,57557</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -9511,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>916818.2048243501</v>
       </c>
       <c r="AS18" t="n">
-        <v>15891688.37527127</v>
+        <v>16808506.58009562</v>
       </c>
     </row>
     <row r="19">
@@ -9578,13 +9578,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9281125.329625599</v>
+        <v>9643173.814004799</v>
       </c>
       <c r="U19" t="n">
-        <v>1396914.6092832</v>
+        <v>1440644.1530896</v>
       </c>
       <c r="V19" t="n">
-        <v>1264438.0280248</v>
+        <v>1308444.26596932</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,473554;31,0;41,57557</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -9654,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>916818.2048243501</v>
       </c>
       <c r="AS19" t="n">
-        <v>26209578.79482228</v>
+        <v>27126396.99964663</v>
       </c>
     </row>
     <row r="20">
@@ -9721,13 +9721,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>219327.7192976</v>
+        <v>227136.77379321</v>
       </c>
       <c r="U20" t="n">
-        <v>39878.8609972</v>
+        <v>40902.30702926</v>
       </c>
       <c r="V20" t="n">
-        <v>23652.1907728</v>
+        <v>24397.86654832</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,8149;31,0;41,780</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -9797,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>19158.467826064</v>
       </c>
       <c r="AS20" t="n">
-        <v>635297.45712188</v>
+        <v>654455.924947944</v>
       </c>
     </row>
     <row r="21">
@@ -9864,13 +9864,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>293767.0418944</v>
+        <v>304181.67914428</v>
       </c>
       <c r="U21" t="n">
-        <v>48742.0019968</v>
+        <v>50056.75718528</v>
       </c>
       <c r="V21" t="n">
-        <v>33316.1077856</v>
+        <v>34388.04059504</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,11523;31,0;41,1188</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -9940,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>25650.061704672</v>
       </c>
       <c r="AS21" t="n">
-        <v>829064.2254395201</v>
+        <v>854714.287144192</v>
       </c>
     </row>
     <row r="22">
@@ -10007,13 +10007,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>418960.3348352</v>
+        <v>438418.0489168</v>
       </c>
       <c r="U22" t="n">
-        <v>63903.4049024</v>
+        <v>66258.56772799999</v>
       </c>
       <c r="V22" t="n">
-        <v>50086.49480879999</v>
+        <v>52322.70755992</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,23400;31,0;41,2686</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -10083,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>48566.56089718</v>
       </c>
       <c r="AS22" t="n">
-        <v>1160194.17381236</v>
+        <v>1208760.73470954</v>
       </c>
     </row>
     <row r="23">
@@ -10150,13 +10150,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>488253.6150112</v>
+        <v>513819.30357049</v>
       </c>
       <c r="U23" t="n">
-        <v>73422.30641200001</v>
+        <v>76514.0491242</v>
       </c>
       <c r="V23" t="n">
-        <v>60624.7900108</v>
+        <v>63629.46248754</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,31712;31,0;41,3722</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -10226,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>64175.580014725</v>
       </c>
       <c r="AS23" t="n">
-        <v>1356734.0718161</v>
+        <v>1420909.651830825</v>
       </c>
     </row>
     <row r="24">
@@ -10293,13 +10293,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>563897.9100800001</v>
+        <v>594619.3910640001</v>
       </c>
       <c r="U24" t="n">
-        <v>86457.43135839999</v>
+        <v>90169.18019615998</v>
       </c>
       <c r="V24" t="n">
-        <v>75356.46981759999</v>
+        <v>79050.39762367999</v>
       </c>
       <c r="W24" t="n">
         <v>1940</v>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,38725;31,0;41,4649</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>77572.63284950401</v>
       </c>
       <c r="AS24" t="n">
-        <v>1607979.88790416</v>
+        <v>1685552.520753664</v>
       </c>
     </row>
     <row r="25">
@@ -10436,13 +10436,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>718781.2446464</v>
+        <v>760972.6247848</v>
       </c>
       <c r="U25" t="n">
-        <v>113220.1910496</v>
+        <v>118316.1483664</v>
       </c>
       <c r="V25" t="n">
-        <v>105246.3824442</v>
+        <v>110480.88746776</v>
       </c>
       <c r="W25" t="n">
         <v>1940</v>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,54698;31,0;41,6786</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>107451.88950979</v>
       </c>
       <c r="AS25" t="n">
-        <v>2121297.26194279</v>
+        <v>2228749.15145258</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/100.xlsx
+++ b/opm_hero_property/heroes/100.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>100</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5978415.9844624</v>
+        <v>6862538.9011344</v>
       </c>
       <c r="U2" t="n">
-        <v>890985.8113872</v>
+        <v>1051171.1329232</v>
       </c>
       <c r="V2" t="n">
-        <v>811505.8255759199</v>
+        <v>935027.8955679199</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11249406.721555</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2036588.35371627</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2910416.5377244</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1799767</v>
+      </c>
+      <c r="AU2" t="n">
         <v>916818.2048243501</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16808506.58009562</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19508160.11782002</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>100</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>760972.6247848</v>
+        <v>860539.6789287999</v>
       </c>
       <c r="U3" t="n">
-        <v>118316.1483664</v>
+        <v>136355.4003984</v>
       </c>
       <c r="V3" t="n">
-        <v>110480.88746776</v>
+        <v>124681.47144376</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1274557.512835</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>231964.89910779</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>533753.4010268</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>203792.65</v>
+      </c>
+      <c r="AU3" t="n">
         <v>107451.88950979</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2228749.15145258</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2534440.40247938</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>100</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7779.1696</v>
+        <v>8245.169600000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1557.4378</v>
+        <v>1641.4378</v>
       </c>
       <c r="V4" t="n">
-        <v>577.9884</v>
+        <v>642.9884</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19079.52372</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23578.42372</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1419.35</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24997.77372</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>100</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20806.6882</v>
+        <v>34492.6882</v>
       </c>
       <c r="U5" t="n">
-        <v>3885.0976</v>
+        <v>6364.0976</v>
       </c>
       <c r="V5" t="n">
-        <v>1746.144</v>
+        <v>3658.144</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48444.08964</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60350.88964</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41785.10000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>102135.98964</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>100</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>59583.6748</v>
+        <v>118259.6748</v>
       </c>
       <c r="U6" t="n">
-        <v>9692.275</v>
+        <v>20323.275</v>
       </c>
       <c r="V6" t="n">
-        <v>5702.108</v>
+        <v>13899.108</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115758.9933</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163814.9933</v>
+      <c r="AT6" t="n">
+        <v>179162.65</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>342977.6433</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>100</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>72861.59565856001</v>
+        <v>131537.59565856</v>
       </c>
       <c r="U7" t="n">
-        <v>11298.19792</v>
+        <v>21929.19792</v>
       </c>
       <c r="V7" t="n">
-        <v>7306.5862696</v>
+        <v>15503.5862696</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115758.9933</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>179162.65</v>
+      </c>
+      <c r="AU7" t="n">
         <v>33584.53905676</v>
       </c>
-      <c r="AS7" t="n">
-        <v>197637.53235676</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>376800.1823567601</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>100</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>86453.76191552001</v>
+        <v>145129.76191552</v>
       </c>
       <c r="U8" t="n">
-        <v>12935.88994</v>
+        <v>23566.88994</v>
       </c>
       <c r="V8" t="n">
-        <v>8935.147998</v>
+        <v>17132.147998</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115758.9933</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>661.7619144</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>179162.65</v>
+      </c>
+      <c r="AU8" t="n">
         <v>67179.24827562</v>
       </c>
-      <c r="AS8" t="n">
-        <v>231894.00349002</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>411056.65349002</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>100</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>250779.2176</v>
+        <v>426842.819776</v>
       </c>
       <c r="U9" t="n">
-        <v>39425.816</v>
+        <v>69603.36416</v>
       </c>
       <c r="V9" t="n">
-        <v>27338.9004</v>
+        <v>50811.559404</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>523302.3753</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>691329.0253</v>
+        <v>43970.773753</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>419804.1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1210705.499053</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>100</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>266489.33290752</v>
+        <v>500115.8479150234</v>
       </c>
       <c r="U10" t="n">
-        <v>41280.41838079999</v>
+        <v>80752.02133626881</v>
       </c>
       <c r="V10" t="n">
-        <v>29173.46438488</v>
+        <v>59090.95360987984</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>523302.3753</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3044.1082262</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>43970.773753</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>419804.1</v>
+      </c>
+      <c r="AU10" t="n">
         <v>36011.5064219</v>
       </c>
-      <c r="AS10" t="n">
-        <v>730384.6399481</v>
+      <c r="AV10" t="n">
+        <v>253097.2646909872</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1408510.778392087</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>100</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>337903.6845824</v>
+        <v>636990.3779200512</v>
       </c>
       <c r="U11" t="n">
-        <v>49480.743488</v>
+        <v>97958.246147328</v>
       </c>
       <c r="V11" t="n">
-        <v>37270.15250892</v>
+        <v>74459.38212015256</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>523302.3753</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>33980.1904882</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>43970.773753</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>419804.1</v>
+      </c>
+      <c r="AU11" t="n">
         <v>180122.97578769</v>
       </c>
-      <c r="AS11" t="n">
-        <v>905432.1915758901</v>
+      <c r="AV11" t="n">
+        <v>422510.6581986016</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1752971.723527492</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>100</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>352188.5019904</v>
+        <v>734086.8543538944</v>
       </c>
       <c r="U12" t="n">
-        <v>50778.936128</v>
+        <v>108647.146458048</v>
       </c>
       <c r="V12" t="n">
-        <v>38522.10653292</v>
+        <v>86638.92968947063</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>1530</v>
+        <v>1550</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010</v>
+        <v>2090</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>523302.3753</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>64916.2727502</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>43970.773753</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>419804.1</v>
+      </c>
+      <c r="AU12" t="n">
         <v>180122.97578769</v>
       </c>
-      <c r="AS12" t="n">
-        <v>936368.27383789</v>
+      <c r="AV12" t="n">
+        <v>633071.8630379916</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1994469.010628882</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>436277.4452736</v>
+        <v>916013.6814460414</v>
       </c>
       <c r="U13" t="n">
-        <v>60510.315456</v>
+        <v>131431.148751936</v>
       </c>
       <c r="V13" t="n">
-        <v>48165.40921632</v>
+        <v>107540.7230855735</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>1830</v>
+        <v>1880</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>523302.3753</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>95852.3550122</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>43970.773753</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>419804.1</v>
+      </c>
+      <c r="AU13" t="n">
         <v>356366.34460164</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1143547.72491384</v>
+      <c r="AV13" t="n">
+        <v>886069.166909607</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2454645.765576447</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>100</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>366473.3193984</v>
+        <v>978195.7818099713</v>
       </c>
       <c r="U14" t="n">
-        <v>52077.128768</v>
+        <v>137665.205174272</v>
       </c>
       <c r="V14" t="n">
-        <v>39774.06055692</v>
+        <v>109148.8968303821</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>1760</v>
+        <v>1810</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>523302.3753</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>95852.3550122</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43732.773753</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>419804.1</v>
+      </c>
+      <c r="AU14" t="n">
         <v>180122.97578769</v>
       </c>
-      <c r="AS14" t="n">
-        <v>967066.3560998901</v>
+      <c r="AV14" t="n">
+        <v>1176756.624434255</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2568851.854287145</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>100</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>531080.74679264</v>
+        <v>1537254.108421215</v>
       </c>
       <c r="U15" t="n">
-        <v>75779.8623368</v>
+        <v>228920.002913776</v>
       </c>
       <c r="V15" t="n">
-        <v>64421.2935594</v>
+        <v>183878.6533439982</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>805378.1684000001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>146941.871867</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127553.063368</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>768105.4</v>
+      </c>
+      <c r="AU15" t="n">
         <v>226258.39461611</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1437420.23488311</v>
+      <c r="AV15" t="n">
+        <v>1966723.687003149</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4188340.385254259</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>100</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>546005.77512048</v>
+        <v>1581724.951516984</v>
       </c>
       <c r="U16" t="n">
-        <v>77583.15808560001</v>
+        <v>235083.4049442816</v>
       </c>
       <c r="V16" t="n">
-        <v>66221.96756792</v>
+        <v>189114.6526544993</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>1970</v>
+        <v>2170</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>805378.1684000001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>146941.871867</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127791.063368</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>768105.4</v>
+      </c>
+      <c r="AU16" t="n">
         <v>263980.03915966</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1475379.87942666</v>
+      <c r="AV16" t="n">
+        <v>2047307.355601239</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4306883.698395899</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>100</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1254938.73898173</v>
+        <v>2876899.437075006</v>
       </c>
       <c r="U17" t="n">
-        <v>173203.50921424</v>
+        <v>411976.5665916493</v>
       </c>
       <c r="V17" t="n">
-        <v>177998.00066</v>
+        <v>373968.79584352</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>2250</v>
+        <v>2450</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1844403.55982</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>335153.97872928</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>762032.3423927999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1227258.75</v>
+      </c>
+      <c r="AU17" t="n">
         <v>350053.567805706</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3487757.456354986</v>
+      <c r="AV17" t="n">
+        <v>3097724.973909841</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7886484.322657626</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5978415.9844624</v>
+        <v>10152167.43212952</v>
       </c>
       <c r="U18" t="n">
-        <v>890985.8113872</v>
+        <v>1443752.926608138</v>
       </c>
       <c r="V18" t="n">
-        <v>811505.8255759199</v>
+        <v>1268522.931244934</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>2810</v>
+        <v>3010</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11249406.721555</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2036588.35371627</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2910416.5377244</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1799767</v>
+      </c>
+      <c r="AU18" t="n">
         <v>916818.2048243501</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16808506.58009562</v>
+      <c r="AV18" t="n">
+        <v>7918439.362564018</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27426599.48038404</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9643173.814004799</v>
+        <v>17234414.1322284</v>
       </c>
       <c r="U19" t="n">
-        <v>1440644.1530896</v>
+        <v>2565749.425201766</v>
       </c>
       <c r="V19" t="n">
-        <v>1308444.26596932</v>
+        <v>2244067.636851355</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>3720</v>
+        <v>3920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18255441.02722</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3304264.76760228</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6212332.604083</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1799767</v>
+      </c>
+      <c r="AU19" t="n">
         <v>916818.2048243501</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27126396.99964663</v>
+      <c r="AV19" t="n">
+        <v>16198741.67428624</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47863098.07801588</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>227136.77379321</v>
+        <v>233744.77379321</v>
       </c>
       <c r="U20" t="n">
-        <v>40902.30702926</v>
+        <v>42099.30702926</v>
       </c>
       <c r="V20" t="n">
-        <v>24397.86654832</v>
+        <v>25339.86654832</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>552668.26797</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3179.38915188</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20283.8</v>
+      </c>
+      <c r="AU20" t="n">
         <v>19158.467826064</v>
       </c>
-      <c r="AS20" t="n">
-        <v>654455.924947944</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>674739.7249479439</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>100</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>304181.67914428</v>
+        <v>317830.31188228</v>
       </c>
       <c r="U21" t="n">
-        <v>50056.75718528</v>
+        <v>52547.75145727999</v>
       </c>
       <c r="V21" t="n">
-        <v>34388.04059504</v>
+        <v>36283.52941104</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>654725.3906800001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>42174.18475952</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>70567.80390679999</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35196.55</v>
+      </c>
+      <c r="AU21" t="n">
         <v>25650.061704672</v>
       </c>
-      <c r="AS21" t="n">
-        <v>854714.287144192</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>896449.841050992</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>100</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>438418.0489168</v>
+        <v>569053.9614445296</v>
       </c>
       <c r="U22" t="n">
-        <v>66258.56772799999</v>
+        <v>84849.46853038399</v>
       </c>
       <c r="V22" t="n">
-        <v>52322.70755992</v>
+        <v>67549.86015634528</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>1530</v>
+        <v>1580</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>828424.43934</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>102332.23447236</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>100171.1943934</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47533.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>48566.56089718</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1208760.73470954</v>
+      <c r="AV22" t="n">
+        <v>291259.7611002246</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1555829.990203165</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>100</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>513819.30357049</v>
+        <v>738868.7334559294</v>
       </c>
       <c r="U23" t="n">
-        <v>76514.0491242</v>
+        <v>111606.7316443614</v>
       </c>
       <c r="V23" t="n">
-        <v>63629.46248754</v>
+        <v>90496.26586916622</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>1970</v>
+        <v>2170</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>904627.69145</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>164913.1303661</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>160746.053829</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86969.8</v>
+      </c>
+      <c r="AU23" t="n">
         <v>64175.580014725</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1420909.651830825</v>
+      <c r="AV23" t="n">
+        <v>519027.2048899039</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2044982.710549729</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>100</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>594619.3910640001</v>
+        <v>927837.971204304</v>
       </c>
       <c r="U24" t="n">
-        <v>90169.18019615998</v>
+        <v>142458.0432672131</v>
       </c>
       <c r="V24" t="n">
-        <v>79050.39762367999</v>
+        <v>120265.4202149254</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>2250</v>
+        <v>2450</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1024860.53124</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>186719.10666416</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>280029.0212496</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138959.25</v>
+      </c>
+      <c r="AU24" t="n">
         <v>77572.63284950401</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1685552.520753664</v>
+      <c r="AV24" t="n">
+        <v>753477.4439806319</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2618950.635983896</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>100</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>760972.6247848</v>
+        <v>1584130.274246054</v>
       </c>
       <c r="U25" t="n">
-        <v>118316.1483664</v>
+        <v>238989.5039820624</v>
       </c>
       <c r="V25" t="n">
-        <v>110480.88746776</v>
+        <v>212573.3392933458</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>2810</v>
+        <v>3010</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1274557.512835</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>231964.89910779</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>533753.4010268</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>203792.65</v>
+      </c>
+      <c r="AU25" t="n">
         <v>107451.88950979</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2228749.15145258</v>
+      <c r="AV25" t="n">
+        <v>1939544.150179643</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4473984.552659024</v>
       </c>
     </row>
   </sheetData>
